--- a/assets/other/categorization.xlsx
+++ b/assets/other/categorization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alpha Aces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alpha Aces\Projects\Bank_Statemants_Automation\assets\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB55BAFE-08C3-4459-B29B-C5689125417D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC904A4-9BDC-4623-B83E-A971F21ABCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E84FF112-74F1-42D0-B56F-441583600F5C}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="98">
   <si>
     <t>Narration Reference</t>
   </si>
@@ -75,6 +75,246 @@
   </si>
   <si>
     <t>BharatPe</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Cash Withdrawal</t>
+  </si>
+  <si>
+    <t>Credit Card Payments</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>EMI Payments</t>
+  </si>
+  <si>
+    <t>Food &amp; Beverage</t>
+  </si>
+  <si>
+    <t>Health &amp; Fitness</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Investments &amp; Trading</t>
+  </si>
+  <si>
+    <t>Online Shopping</t>
+  </si>
+  <si>
+    <t>Rent &amp; Housing</t>
+  </si>
+  <si>
+    <t>Subscriptions &amp; Entertainment</t>
+  </si>
+  <si>
+    <t>TDS &amp; Tax</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Transport &amp; Fuel</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Crossword Bookstores</t>
+  </si>
+  <si>
+    <t>Atm</t>
+  </si>
+  <si>
+    <t>Atm Wdl</t>
+  </si>
+  <si>
+    <t>Atm/Cash</t>
+  </si>
+  <si>
+    <t>Cash Wdl</t>
+  </si>
+  <si>
+    <t>Cashwdl</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Cc Bill Payment</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>Tuition</t>
+  </si>
+  <si>
+    <t>Emi</t>
+  </si>
+  <si>
+    <t>Swiggy</t>
+  </si>
+  <si>
+    <t>Zomato</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Zepto</t>
+  </si>
+  <si>
+    <t>Optimum Nutrition</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>Zerodha</t>
+  </si>
+  <si>
+    <t>Mutual Fund</t>
+  </si>
+  <si>
+    <t>Sip</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Brokerage</t>
+  </si>
+  <si>
+    <t>Demat</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Nse</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Flipkart</t>
+  </si>
+  <si>
+    <t>Myntra</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>Bookmyshow</t>
+  </si>
+  <si>
+    <t>Tax Recovery</t>
+  </si>
+  <si>
+    <t>Tds</t>
+  </si>
+  <si>
+    <t>Advance Tax</t>
+  </si>
+  <si>
+    <t>Amazonaws</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Hpservice</t>
+  </si>
+  <si>
+    <t>H P Service</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>HPCL</t>
+  </si>
+  <si>
+    <t>HPCL AUTO</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Ola</t>
+  </si>
+  <si>
+    <t>Ixigo</t>
+  </si>
+  <si>
+    <t>Goibibo</t>
+  </si>
+  <si>
+    <t>Mmt</t>
+  </si>
+  <si>
+    <t>Makemytrip</t>
+  </si>
+  <si>
+    <t>Interglobe Aviation</t>
+  </si>
+  <si>
+    <t>Irctc</t>
+  </si>
+  <si>
+    <t>Airbnb</t>
+  </si>
+  <si>
+    <t>Resort</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>Hotel Booking</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Gas</t>
   </si>
 </sst>
 </file>
@@ -991,16 +1231,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091E7A0A-C8F9-4BEA-AEB6-CEAB8B9AF46F}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1059,6 +1299,550 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
